--- a/project/uploads/weekly-reports/weekly-report-2025-11-16-to-2025-11-23.xlsx
+++ b/project/uploads/weekly-reports/weekly-report-2025-11-16-to-2025-11-23.xlsx
@@ -440,7 +440,7 @@
         <v>Generated At</v>
       </c>
       <c r="B5" t="str">
-        <v>11/25/2025, 10:06:58 AM EAT</v>
+        <v>11/30/2025, 7:30:59 AM EAT</v>
       </c>
     </row>
     <row r="6">
@@ -448,7 +448,7 @@
         <v>Total Users</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>Total Visits</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -464,7 +464,7 @@
         <v>Total Reports</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -472,7 +472,7 @@
         <v>Total Leads</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,25 +520,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>N/A</v>
+        <v>EMP007</v>
       </c>
       <c r="B2" t="str">
-        <v>No Activity</v>
+        <v>Grace Wairimu</v>
       </c>
       <c r="C2" t="str">
-        <v>N/A</v>
+        <v>wairimugracce@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>N/A</v>
+        <v>sales</v>
       </c>
       <c r="E2" t="str">
-        <v>N/A</v>
+        <v>Nairobi</v>
       </c>
       <c r="F2" t="str">
-        <v>N/A</v>
+        <v>Nairobi</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -547,16 +547,103 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B3" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C3" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Kisumu</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Kisumu,Siaya,Vihiga,Mumias,Busia</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Mercy</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Mercy Jemutai</v>
+      </c>
+      <c r="C4" t="str">
+        <v>mercyaccord@gmail.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Uasin Gishu</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Torongo</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>sethw</v>
+      </c>
+      <c r="B5" t="str">
+        <v>admjn seth</v>
+      </c>
+      <c r="C5" t="str">
+        <v>sethmose31@gmail.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Bungoma</v>
+      </c>
+      <c r="F5" t="str">
+        <v>now</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -620,16 +707,2320 @@
         <v>Follow-up Required</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VISIT1763667295114863</v>
+      </c>
+      <c r="D2" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3:30:00 PM</v>
+      </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Shalom Medical Clinic</v>
+      </c>
+      <c r="I2" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Buruburu</v>
+      </c>
+      <c r="L2" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M2" t="str">
+        <v>no_interest</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R2" t="str">
+        <v>No orders or upcoming projects at the moment</v>
+      </c>
+      <c r="S2" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C3" t="str">
+        <v>VISIT1763704772212501</v>
+      </c>
+      <c r="D3" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E3" t="str">
+        <v>6:30:00 PM</v>
+      </c>
+      <c r="F3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Gishagi Dispensary</v>
+      </c>
+      <c r="I3" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Kangemi</v>
+      </c>
+      <c r="L3" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M3" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R3" t="str">
+        <v>For our previous quotation we lost it because another company quoted lower.He requested for another quotation of lab consumables and rapid tests.</v>
+      </c>
+      <c r="S3" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C4" t="str">
+        <v>VISIT1763704423641469</v>
+      </c>
+      <c r="D4" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>6:00:00 PM</v>
+      </c>
+      <c r="F4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Gichagi Dispensary</v>
+      </c>
+      <c r="I4" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Kangemi</v>
+      </c>
+      <c r="L4" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M4" t="str">
+        <v>no_interest</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R4" t="str">
+        <v>No orders or upcoming projects at the moment</v>
+      </c>
+      <c r="S4" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C5" t="str">
+        <v>VISIT1763703761903556</v>
+      </c>
+      <c r="D5" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>5:45:00 PM</v>
+      </c>
+      <c r="F5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H5" t="str">
+        <v>St Joseph the Worker Medical Centre</v>
+      </c>
+      <c r="I5" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J5" t="str">
+        <v>3</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Kangemi</v>
+      </c>
+      <c r="L5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M5" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R5" t="str">
+        <v>She was told to look for a machine worth 100,000 and I suggested a Urine analyzer and some consumables. She is yet to confirm.</v>
+      </c>
+      <c r="S5" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C6" t="str">
+        <v>VISIT1763703509531351</v>
+      </c>
+      <c r="D6" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E6" t="str">
+        <v>5:30:00 PM</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Medsspa Medical Clinic</v>
+      </c>
+      <c r="I6" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Kangemi</v>
+      </c>
+      <c r="L6" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M6" t="str">
+        <v>no_interest</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R6" t="str">
+        <v>No orders or upcoming projecta at the moment.</v>
+      </c>
+      <c r="S6" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C7" t="str">
+        <v>VISIT176370307273739</v>
+      </c>
+      <c r="D7" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3:00:00 PM</v>
+      </c>
+      <c r="F7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Embassy Curepoint Hospital</v>
+      </c>
+      <c r="I7" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J7" t="str">
+        <v>3</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Kangemi</v>
+      </c>
+      <c r="L7" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M7" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R7" t="str">
+        <v>Administration changes completely ans was formally known as jimandes Hospital.Interested in the Hbaic machine,she said she's not the proper person but shw will connect me to the proper person once i call.</v>
+      </c>
+      <c r="S7" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C8" t="str">
+        <v>VISIT176370267047584</v>
+      </c>
+      <c r="D8" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E8" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Lions Sightfirst Eye Hospita</v>
+      </c>
+      <c r="I8" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J8" t="str">
+        <v>6</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Loresho</v>
+      </c>
+      <c r="L8" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M8" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R8" t="str">
+        <v>They do not purchase any chinese products but are intereated in our haematology and Ro water plant.They are going to expand and open anither facility in Kisumu .Current haematology machine is Sysmex.</v>
+      </c>
+      <c r="S8" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C9" t="str">
+        <v>VISIT1763703298180939</v>
+      </c>
+      <c r="D9" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E9" t="str">
+        <v>4:15:00 AM</v>
+      </c>
+      <c r="F9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Amurt Health care Centre</v>
+      </c>
+      <c r="I9" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J9" t="str">
+        <v>3</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Kangemi</v>
+      </c>
+      <c r="L9" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M9" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R9" t="str">
+        <v>Elvis had gone for leave and will be back next week</v>
+      </c>
+      <c r="S9" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C10" t="str">
+        <v>VISIT1763668359751186</v>
+      </c>
+      <c r="D10" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E10" t="str">
+        <v>7:20:00 PM</v>
+      </c>
+      <c r="F10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Makadara Mercy Sisters Dispensary</v>
+      </c>
+      <c r="I10" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Makadara</v>
+      </c>
+      <c r="L10" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M10" t="str">
+        <v>no_interest</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R10" t="str">
+        <v>Order from Meds which is also a catholic institution</v>
+      </c>
+      <c r="S10" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C11" t="str">
+        <v>VISIT176366798307932</v>
+      </c>
+      <c r="D11" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E11" t="str">
+        <v>6:45:00 PM</v>
+      </c>
+      <c r="F11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Bahati level 4 Hospital</v>
+      </c>
+      <c r="I11" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J11" t="str">
+        <v>4</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Bahati</v>
+      </c>
+      <c r="L11" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M11" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R11" t="str">
+        <v>Yet to make orders and will contact me when they are able to.</v>
+      </c>
+      <c r="S11" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C12" t="str">
+        <v>VISIT176349223564191</v>
+      </c>
+      <c r="D12" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2:45:00 PM</v>
+      </c>
+      <c r="F12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Jomulu Medical Centre</v>
+      </c>
+      <c r="I12" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="J12" t="str">
+        <v>2</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Buruburu,Nairobi</v>
+      </c>
+      <c r="L12" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M12" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R12" t="str">
+        <v>They make an appointment for me from the owner ,i just have to leave my contacts and they will reach out to me.</v>
+      </c>
+      <c r="S12" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C13" t="str">
+        <v>VISIT1763492058416706</v>
+      </c>
+      <c r="D13" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2:00:00 PM</v>
+      </c>
+      <c r="F13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Cliniva Medical Centre</v>
+      </c>
+      <c r="I13" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="J13" t="str">
+        <v>2</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Buruburu,Nairobi</v>
+      </c>
+      <c r="L13" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M13" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R13" t="str">
+        <v>They are very good cluents and they take orders from us.</v>
+      </c>
+      <c r="S13" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C14" t="str">
+        <v>VISIT1763489279836154</v>
+      </c>
+      <c r="D14" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E14" t="str">
+        <v>12:45:00 PM</v>
+      </c>
+      <c r="F14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Rising Star Health Services</v>
+      </c>
+      <c r="I14" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="J14" t="str">
+        <v>2</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Jericho,Nairobi</v>
+      </c>
+      <c r="L14" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M14" t="str">
+        <v>no_interest</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R14" t="str">
+        <v>Interested in chair but still in debt</v>
+      </c>
+      <c r="S14" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C15" t="str">
+        <v>VISIT1763489024343510</v>
+      </c>
+      <c r="D15" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E15" t="str">
+        <v>12:05:00 PM</v>
+      </c>
+      <c r="F15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Jericho Health Centre</v>
+      </c>
+      <c r="I15" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J15" t="str">
+        <v>3</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Jericho,Nairobi</v>
+      </c>
+      <c r="L15" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M15" t="str">
+        <v>no_interest</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R15" t="str">
+        <v>She said she will contact me when making order or when need arises</v>
+      </c>
+      <c r="S15" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C16" t="str">
+        <v>VISIT17634882482067</v>
+      </c>
+      <c r="D16" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E16" t="str">
+        <v>11:15:00 AM</v>
+      </c>
+      <c r="F16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Edelvale Trust Jamaa Home and Mission Hospital</v>
+      </c>
+      <c r="I16" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J16" t="str">
+        <v>4</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Buruburu,Nairobi</v>
+      </c>
+      <c r="L16" t="str">
+        <v>followup</v>
+      </c>
+      <c r="M16" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R16" t="str">
+        <v>Requested to visit the first week of next month(December ) to follow up because procurement processes take time.</v>
+      </c>
+      <c r="S16" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C17" t="str">
+        <v>VISIT1763667771143796</v>
+      </c>
+      <c r="D17" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E17" t="str">
+        <v>6:00:00 AM</v>
+      </c>
+      <c r="F17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Bahati Dispensary</v>
+      </c>
+      <c r="I17" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="J17" t="str">
+        <v>not_applicable</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Bahati</v>
+      </c>
+      <c r="L17" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M17" t="str">
+        <v>pending</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R17" t="str">
+        <v>Told me whrn they would like ti purchase ,he will ask for some paper work such as catalogue with prices ,kra pin,business permit and tac compliant</v>
+      </c>
+      <c r="S17" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C18" t="str">
+        <v>VISIT1763667516633954</v>
+      </c>
+      <c r="D18" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E18" t="str">
+        <v>5:00:00 AM</v>
+      </c>
+      <c r="F18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Mary Immaculate Bahati Hospital</v>
+      </c>
+      <c r="I18" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J18" t="str">
+        <v>3</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Bahati</v>
+      </c>
+      <c r="L18" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M18" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R18" t="str">
+        <v>Sister Incharge is in a 40 day retreat till next year</v>
+      </c>
+      <c r="S18" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B19" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C19" t="str">
+        <v>VISIT1763755565228661</v>
+      </c>
+      <c r="D19" t="str">
+        <v>11/21/2025</v>
+      </c>
+      <c r="E19" t="str">
+        <v>5:00:00 PM</v>
+      </c>
+      <c r="F19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Los Olives medicare Ltd</v>
+      </c>
+      <c r="I19" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J19" t="str">
+        <v>3</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Masiele Bungoma</v>
+      </c>
+      <c r="L19" t="str">
+        <v>consultation</v>
+      </c>
+      <c r="M19" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R19" t="str" xml:space="preserve">
+        <v xml:space="preserve">They are planning a theatre.The building is almost complete,it is in the final stage of installing the floor and painting.
+The client requested a quotation .</v>
+      </c>
+      <c r="S19" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B20" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C20" t="str">
+        <v>VISIT1763753637233810</v>
+      </c>
+      <c r="D20" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E20" t="str">
+        <v>5:00:00 PM</v>
+      </c>
+      <c r="F20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Santa Jane Nursing Home and Maternity services</v>
+      </c>
+      <c r="I20" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J20" t="str">
+        <v>3</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Nyakach</v>
+      </c>
+      <c r="L20" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M20" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Currently business is slow but they will order once they receive funds
+Shared the cataligue and price list</v>
+      </c>
+      <c r="S20" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B21" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C21" t="str">
+        <v>VISIT1763752481885861</v>
+      </c>
+      <c r="D21" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2:00:00 PM</v>
+      </c>
+      <c r="F21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H21" t="str">
+        <v>AIC Nyakach health centre</v>
+      </c>
+      <c r="I21" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J21" t="str">
+        <v>3</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Nyakach</v>
+      </c>
+      <c r="L21" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M21" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R21" t="str">
+        <v>They are planning to expand their wards and will be needing more beds after they are done with construction</v>
+      </c>
+      <c r="S21" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B22" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C22" t="str">
+        <v>VISIT1763752895129438</v>
+      </c>
+      <c r="D22" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2:00:00 PM</v>
+      </c>
+      <c r="F22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H22" t="str">
+        <v>St.Clares Bolo Mission hospital</v>
+      </c>
+      <c r="I22" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J22" t="str">
+        <v>4</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Nyakach</v>
+      </c>
+      <c r="L22" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M22" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R22" t="str">
+        <v>The sister incharge was not around.I shared the product catalogue with the procurement officer.I will keep in touch for business</v>
+      </c>
+      <c r="S22" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B23" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C23" t="str">
+        <v>VISIT176375209461586</v>
+      </c>
+      <c r="D23" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1:00:00 PM</v>
+      </c>
+      <c r="F23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H23" t="str">
+        <v>St.Newfeb hospital Limited</v>
+      </c>
+      <c r="I23" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J23" t="str">
+        <v>3</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Nyakach</v>
+      </c>
+      <c r="L23" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M23" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R23" t="str">
+        <v>The incharge was not around</v>
+      </c>
+      <c r="S23" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B24" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C24" t="str">
+        <v>VISIT1763751800469349</v>
+      </c>
+      <c r="D24" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E24" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Bethlehem home hospital</v>
+      </c>
+      <c r="I24" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J24" t="str">
+        <v>3</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Nyakach</v>
+      </c>
+      <c r="L24" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M24" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R24" t="str">
+        <v>The nurse incharge requested for the product catalogue and price list</v>
+      </c>
+      <c r="S24" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B25" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C25" t="str">
+        <v>VISIT1763750307529781</v>
+      </c>
+      <c r="D25" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E25" t="str">
+        <v>5:00:00 PM</v>
+      </c>
+      <c r="F25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Malesi pharmacy</v>
+      </c>
+      <c r="I25" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="J25" t="str">
+        <v>not_applicable</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Kakamega</v>
+      </c>
+      <c r="L25" t="str">
+        <v>consultation</v>
+      </c>
+      <c r="M25" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R25" t="str" xml:space="preserve">
+        <v xml:space="preserve">The client was in Kisumu and we were able to meet for a brief discussion.He requested a quotation for clinic start-up items and also a haematology analyser
+Amount quoted 591,900</v>
+      </c>
+      <c r="S25" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B26" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C26" t="str">
+        <v>VISIT1763749058637185</v>
+      </c>
+      <c r="D26" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E26" t="str">
+        <v>7:13:00 PM</v>
+      </c>
+      <c r="F26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Ema medical clinic</v>
+      </c>
+      <c r="I26" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J26" t="str">
+        <v>2</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Koru</v>
+      </c>
+      <c r="L26" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M26" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R26" t="str">
+        <v>It is a new facility that has been in operation for 1 month.They are planning to add some few items in the future</v>
+      </c>
+      <c r="S26" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B27" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C27" t="str">
+        <v>VISIT1763748733796242</v>
+      </c>
+      <c r="D27" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E27" t="str">
+        <v>6:30:00 PM</v>
+      </c>
+      <c r="F27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Holy family mission hospital</v>
+      </c>
+      <c r="I27" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J27" t="str">
+        <v>3</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Koru</v>
+      </c>
+      <c r="L27" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M27" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R27" t="str">
+        <v>They are planning to set up a fineral home that should be up and running by January</v>
+      </c>
+      <c r="S27" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B28" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C28" t="str">
+        <v>VISIT1763748198872421</v>
+      </c>
+      <c r="D28" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2:20:00 PM</v>
+      </c>
+      <c r="F28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H28" t="str">
+        <v>The Santiro medical centre</v>
+      </c>
+      <c r="I28" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J28" t="str">
+        <v>3</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Muhoroni</v>
+      </c>
+      <c r="L28" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M28" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R28" t="str">
+        <v>The client unquired about the price of cotton bedsheets and pediatric gowns</v>
+      </c>
+      <c r="S28" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B29" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C29" t="str">
+        <v>VISIT1763747831213914</v>
+      </c>
+      <c r="D29" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E29" t="str">
+        <v>1:00:00 PM</v>
+      </c>
+      <c r="F29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Ndugu lifecare clinic</v>
+      </c>
+      <c r="I29" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J29" t="str">
+        <v>2</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Muhoroni</v>
+      </c>
+      <c r="L29" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M29" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R29" t="str">
+        <v>I shared the catalague and price list.He had purchased some items in Nairobi but promised to give us business in the future</v>
+      </c>
+      <c r="S29" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B30" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C30" t="str">
+        <v>VISIT1763747491766529</v>
+      </c>
+      <c r="D30" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E30" t="str">
+        <v>12:47:00 PM</v>
+      </c>
+      <c r="F30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Rachar sugar belt nursing home</v>
+      </c>
+      <c r="I30" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J30" t="str">
+        <v>3</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Muhoroni</v>
+      </c>
+      <c r="L30" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M30" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R30" t="str">
+        <v>The director was not arround, he is the one incharge of procurement</v>
+      </c>
+      <c r="S30" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B31" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C31" t="str">
+        <v>VISIT1763529497552945</v>
+      </c>
+      <c r="D31" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E31" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H31" t="str">
+        <v>St.Vincent de Paul health centre</v>
+      </c>
+      <c r="I31" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J31" t="str">
+        <v>4</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Muhoroni</v>
+      </c>
+      <c r="L31" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M31" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R31" t="str">
+        <v>I met the procurement officer who informed me that the sister in charge was in the theatre.She requested a product catalogue for their review</v>
+      </c>
+      <c r="S31" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B32" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C32" t="str">
+        <v>VISIT1763528019791700</v>
+      </c>
+      <c r="D32" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E32" t="str">
+        <v>5:00:00 PM</v>
+      </c>
+      <c r="F32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Tumaini Amenity</v>
+      </c>
+      <c r="I32" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J32" t="str">
+        <v>1</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Cheptulu</v>
+      </c>
+      <c r="L32" t="str">
+        <v>demo</v>
+      </c>
+      <c r="M32" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R32" t="str">
+        <v>The owner was not around during the visit,however I was given the contacts</v>
+      </c>
+      <c r="S32" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B33" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C33" t="str">
+        <v>VISIT1763527646234694</v>
+      </c>
+      <c r="D33" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E33" t="str">
+        <v>4:00:00 PM</v>
+      </c>
+      <c r="F33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Cheptulu cfw clinic</v>
+      </c>
+      <c r="I33" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J33" t="str">
+        <v>1</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Cheptulu</v>
+      </c>
+      <c r="L33" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M33" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R33" t="str">
+        <v>She inquired about the cost of waiting chairs, and requested a more affordable option .She asked that I contact her if a cheaper one becomes available</v>
+      </c>
+      <c r="S33" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B34" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C34" t="str">
+        <v>VISIT1763525137596394</v>
+      </c>
+      <c r="D34" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E34" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Jumuia friends hospital Kaimosi</v>
+      </c>
+      <c r="I34" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J34" t="str">
+        <v>4</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Kaimosi</v>
+      </c>
+      <c r="L34" t="str">
+        <v>followup</v>
+      </c>
+      <c r="M34" t="str">
+        <v>followup_required</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R34" t="str">
+        <v>The procurement officer confirmed that they are making arrangements to clear the outstanding balance once they recieve  funds</v>
+      </c>
+      <c r="S34" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B35" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C35" t="str">
+        <v>VISIT1763525805510882</v>
+      </c>
+      <c r="D35" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E35" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Nidas medicare</v>
+      </c>
+      <c r="I35" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J35" t="str">
+        <v>2</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Cheptulu</v>
+      </c>
+      <c r="L35" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M35" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R35" t="str">
+        <v>She requested for a catalogue and price list that I shared via whatsApp</v>
+      </c>
+      <c r="S35" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B36" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C36" t="str">
+        <v>VISIT1763526282800188</v>
+      </c>
+      <c r="D36" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E36" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Bulamu Medical Centre</v>
+      </c>
+      <c r="I36" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J36" t="str">
+        <v>3</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Cheptulu</v>
+      </c>
+      <c r="L36" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M36" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R36" t="str">
+        <v>The owner of the facility was not arround during the visit.However, I shared the product catalogue with the nurse who confirmed that she will forward it to the owner for review</v>
+      </c>
+      <c r="S36" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B37" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C37" t="str">
+        <v>VISIT176352658141095</v>
+      </c>
+      <c r="D37" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E37" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Nakyma Medical centre</v>
+      </c>
+      <c r="I37" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J37" t="str">
+        <v>2</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Cheptulu</v>
+      </c>
+      <c r="L37" t="str">
+        <v>sales</v>
+      </c>
+      <c r="M37" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R37" t="str">
+        <v>He inquired about our location and how we do delivery to our clients</v>
+      </c>
+      <c r="S37" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Mercy</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Mercy Jemutai</v>
+      </c>
+      <c r="C38" t="str">
+        <v>VISIT1763632793391764</v>
+      </c>
+      <c r="D38" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E38" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Evri IQ hospital</v>
+      </c>
+      <c r="I38" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="J38" t="str">
+        <v>3</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Kapsabet</v>
+      </c>
+      <c r="L38" t="str">
+        <v>followup</v>
+      </c>
+      <c r="M38" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R38" t="str">
+        <v>Follow up visit concerning dental chair deposit payment</v>
+      </c>
+      <c r="S38" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Mercy</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Mercy Jemutai</v>
+      </c>
+      <c r="C39" t="str">
+        <v>VISIT1763561877543185</v>
+      </c>
+      <c r="D39" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E39" t="str">
+        <v>12:00:00 PM</v>
+      </c>
+      <c r="F39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Kapkolei medical clinic</v>
+      </c>
+      <c r="I39" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="J39" t="str">
+        <v>3</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Kapsabet</v>
+      </c>
+      <c r="L39" t="str">
+        <v>followup</v>
+      </c>
+      <c r="M39" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R39" t="str">
+        <v>Follow up concerning dental chair and full hemogram machine 3 part.</v>
+      </c>
+      <c r="S39" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>sethw</v>
+      </c>
+      <c r="B40" t="str">
+        <v>admjn seth</v>
+      </c>
+      <c r="C40" t="str">
+        <v>VISIT1763724954972376</v>
+      </c>
+      <c r="D40" t="str">
+        <v>11/21/2025</v>
+      </c>
+      <c r="E40" t="str">
+        <v>3:02:00 PM</v>
+      </c>
+      <c r="F40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Floh's Phamacy</v>
+      </c>
+      <c r="I40" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="J40" t="str">
+        <v>not_applicable</v>
+      </c>
+      <c r="K40" t="str">
+        <v>0.1806867, 34.2946252</v>
+      </c>
+      <c r="L40" t="str">
+        <v>demo</v>
+      </c>
+      <c r="M40" t="str">
+        <v>successful</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S40" t="str">
+        <v>No</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S40"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,9 +3066,1526 @@
         <v>Notes</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VISIT1763667295114863</v>
+      </c>
+      <c r="D2" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Sharon</v>
+      </c>
+      <c r="F2" t="str">
+        <v>doctor</v>
+      </c>
+      <c r="G2" t="str">
+        <v>+254770222903</v>
+      </c>
+      <c r="H2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J2" t="str">
+        <v>No</v>
+      </c>
+      <c r="K2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L2" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M2" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C3" t="str">
+        <v>VISIT1763704772212501</v>
+      </c>
+      <c r="D3" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="F3" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0725991219</v>
+      </c>
+      <c r="H3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J3" t="str">
+        <v>No</v>
+      </c>
+      <c r="K3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L3" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M3" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C4" t="str">
+        <v>VISIT1763704423641469</v>
+      </c>
+      <c r="D4" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Macharia</v>
+      </c>
+      <c r="F4" t="str">
+        <v>other</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0755599793</v>
+      </c>
+      <c r="H4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J4" t="str">
+        <v>No</v>
+      </c>
+      <c r="K4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L4" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M4" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C5" t="str">
+        <v>VISIT1763703761903556</v>
+      </c>
+      <c r="D5" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Evelyn</v>
+      </c>
+      <c r="F5" t="str">
+        <v>other</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0723512789</v>
+      </c>
+      <c r="H5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J5" t="str">
+        <v>No</v>
+      </c>
+      <c r="K5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L5" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M5" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C6" t="str">
+        <v>VISIT1763703509531351</v>
+      </c>
+      <c r="D6" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Dr.Kuria</v>
+      </c>
+      <c r="F6" t="str">
+        <v>doctor</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0723562872</v>
+      </c>
+      <c r="H6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J6" t="str">
+        <v>No</v>
+      </c>
+      <c r="K6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L6" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M6" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C7" t="str">
+        <v>VISIT176370307273739</v>
+      </c>
+      <c r="D7" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Joan</v>
+      </c>
+      <c r="F7" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0710622465</v>
+      </c>
+      <c r="H7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J7" t="str">
+        <v>No</v>
+      </c>
+      <c r="K7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L7" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M7" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C8" t="str">
+        <v>VISIT176370267047584</v>
+      </c>
+      <c r="D8" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Mr Stephen Thuku</v>
+      </c>
+      <c r="F8" t="str">
+        <v>other</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0735 677843</v>
+      </c>
+      <c r="H8" t="str">
+        <v>muracia@lionsloresho.org</v>
+      </c>
+      <c r="I8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J8" t="str">
+        <v>No</v>
+      </c>
+      <c r="K8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L8" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M8" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C9" t="str">
+        <v>VISIT1763703298180939</v>
+      </c>
+      <c r="D9" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Elvis</v>
+      </c>
+      <c r="F9" t="str">
+        <v>procurement</v>
+      </c>
+      <c r="G9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J9" t="str">
+        <v>No</v>
+      </c>
+      <c r="K9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L9" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M9" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C10" t="str">
+        <v>VISIT1763668359751186</v>
+      </c>
+      <c r="D10" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Sister Patricia</v>
+      </c>
+      <c r="F10" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0729919182</v>
+      </c>
+      <c r="H10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J10" t="str">
+        <v>No</v>
+      </c>
+      <c r="K10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L10" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M10" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C11" t="str">
+        <v>VISIT176366798307932</v>
+      </c>
+      <c r="D11" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E11" t="str">
+        <v>kioko</v>
+      </c>
+      <c r="F11" t="str">
+        <v>doctor</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0705858325</v>
+      </c>
+      <c r="H11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J11" t="str">
+        <v>No</v>
+      </c>
+      <c r="K11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L11" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M11" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C12" t="str">
+        <v>VISIT176349223564191</v>
+      </c>
+      <c r="D12" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Nancy</v>
+      </c>
+      <c r="F12" t="str">
+        <v>nurse</v>
+      </c>
+      <c r="G12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J12" t="str">
+        <v>No</v>
+      </c>
+      <c r="K12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L12" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M12" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C13" t="str">
+        <v>VISIT1763492058416706</v>
+      </c>
+      <c r="D13" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Joy</v>
+      </c>
+      <c r="F13" t="str">
+        <v>nurse</v>
+      </c>
+      <c r="G13" t="str">
+        <v>0745947331</v>
+      </c>
+      <c r="H13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J13" t="str">
+        <v>No</v>
+      </c>
+      <c r="K13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L13" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M13" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C14" t="str">
+        <v>VISIT1763489279836154</v>
+      </c>
+      <c r="D14" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Charles</v>
+      </c>
+      <c r="F14" t="str">
+        <v>doctor</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0743268809</v>
+      </c>
+      <c r="H14" t="str">
+        <v>wairimugracce@gmail.com</v>
+      </c>
+      <c r="I14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J14" t="str">
+        <v>No</v>
+      </c>
+      <c r="K14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L14" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M14" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C15" t="str">
+        <v>VISIT1763489024343510</v>
+      </c>
+      <c r="D15" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Madam Mayiek</v>
+      </c>
+      <c r="F15" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G15" t="str">
+        <v>0713843026</v>
+      </c>
+      <c r="H15" t="str">
+        <v>jerichohealthcenter47@gmail.com</v>
+      </c>
+      <c r="I15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J15" t="str">
+        <v>No</v>
+      </c>
+      <c r="K15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L15" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M15" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C16" t="str">
+        <v>VISIT17634882482067</v>
+      </c>
+      <c r="D16" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Madam Sarah</v>
+      </c>
+      <c r="F16" t="str">
+        <v>procurement</v>
+      </c>
+      <c r="G16" t="str">
+        <v>0724534000</v>
+      </c>
+      <c r="H16" t="str">
+        <v>jamaaprocurement@edelvaletrust.org</v>
+      </c>
+      <c r="I16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J16" t="str">
+        <v>No</v>
+      </c>
+      <c r="K16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L16" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M16" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C17" t="str">
+        <v>VISIT1763667771143796</v>
+      </c>
+      <c r="D17" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Alex</v>
+      </c>
+      <c r="F17" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G17" t="str">
+        <v>0739874126</v>
+      </c>
+      <c r="H17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J17" t="str">
+        <v>No</v>
+      </c>
+      <c r="K17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L17" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M17" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>EMP007</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Grace Wairimu</v>
+      </c>
+      <c r="C18" t="str">
+        <v>VISIT1763667516633954</v>
+      </c>
+      <c r="D18" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Sister Susan</v>
+      </c>
+      <c r="F18" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G18" t="str">
+        <v>0725878014</v>
+      </c>
+      <c r="H18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J18" t="str">
+        <v>No</v>
+      </c>
+      <c r="K18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L18" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M18" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B19" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C19" t="str">
+        <v>VISIT1763755565228661</v>
+      </c>
+      <c r="D19" t="str">
+        <v>11/21/2025</v>
+      </c>
+      <c r="E19" t="str">
+        <v>John Kamire</v>
+      </c>
+      <c r="F19" t="str">
+        <v>other</v>
+      </c>
+      <c r="G19" t="str">
+        <v>0700890053</v>
+      </c>
+      <c r="H19" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J19" t="str">
+        <v>No</v>
+      </c>
+      <c r="K19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L19" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M19" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B20" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C20" t="str">
+        <v>VISIT1763753637233810</v>
+      </c>
+      <c r="D20" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="F20" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G20" t="str">
+        <v>0715087863</v>
+      </c>
+      <c r="H20" t="str">
+        <v>santanursinghome@gmail.com</v>
+      </c>
+      <c r="I20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J20" t="str">
+        <v>No</v>
+      </c>
+      <c r="K20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L20" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M20" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B21" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C21" t="str">
+        <v>VISIT1763752481885861</v>
+      </c>
+      <c r="D21" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Robert ouma</v>
+      </c>
+      <c r="F21" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G21" t="str">
+        <v>0712674774</v>
+      </c>
+      <c r="H21" t="str">
+        <v>robertouma8888@gmail.com</v>
+      </c>
+      <c r="I21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J21" t="str">
+        <v>No</v>
+      </c>
+      <c r="K21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L21" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M21" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B22" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C22" t="str">
+        <v>VISIT1763752895129438</v>
+      </c>
+      <c r="D22" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Monica</v>
+      </c>
+      <c r="F22" t="str">
+        <v>procurement</v>
+      </c>
+      <c r="G22" t="str">
+        <v>0722235722</v>
+      </c>
+      <c r="H22" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J22" t="str">
+        <v>No</v>
+      </c>
+      <c r="K22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L22" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M22" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B23" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C23" t="str">
+        <v>VISIT176375209461586</v>
+      </c>
+      <c r="D23" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Leonard</v>
+      </c>
+      <c r="F23" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G23" t="str">
+        <v>0743689135</v>
+      </c>
+      <c r="H23" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J23" t="str">
+        <v>No</v>
+      </c>
+      <c r="K23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L23" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M23" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B24" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C24" t="str">
+        <v>VISIT1763751800469349</v>
+      </c>
+      <c r="D24" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E24" t="str">
+        <v>mercy</v>
+      </c>
+      <c r="F24" t="str">
+        <v>nurse</v>
+      </c>
+      <c r="G24" t="str">
+        <v>0701390401</v>
+      </c>
+      <c r="H24" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J24" t="str">
+        <v>No</v>
+      </c>
+      <c r="K24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L24" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M24" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B25" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C25" t="str">
+        <v>VISIT1763750307529781</v>
+      </c>
+      <c r="D25" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Malesi</v>
+      </c>
+      <c r="F25" t="str">
+        <v>ceo</v>
+      </c>
+      <c r="G25" t="str">
+        <v>0722434559</v>
+      </c>
+      <c r="H25" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J25" t="str">
+        <v>No</v>
+      </c>
+      <c r="K25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L25" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M25" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B26" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C26" t="str">
+        <v>VISIT1763749058637185</v>
+      </c>
+      <c r="D26" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E26" t="str">
+        <v>William</v>
+      </c>
+      <c r="F26" t="str">
+        <v>ceo</v>
+      </c>
+      <c r="G26" t="str">
+        <v>0722287669</v>
+      </c>
+      <c r="H26" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J26" t="str">
+        <v>No</v>
+      </c>
+      <c r="K26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L26" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M26" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B27" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C27" t="str">
+        <v>VISIT1763748733796242</v>
+      </c>
+      <c r="D27" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Mercy</v>
+      </c>
+      <c r="F27" t="str">
+        <v>procurement</v>
+      </c>
+      <c r="G27" t="str">
+        <v>0710100873</v>
+      </c>
+      <c r="H27" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J27" t="str">
+        <v>No</v>
+      </c>
+      <c r="K27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L27" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M27" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B28" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C28" t="str">
+        <v>VISIT1763748198872421</v>
+      </c>
+      <c r="D28" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="F28" t="str">
+        <v>ceo</v>
+      </c>
+      <c r="G28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H28" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J28" t="str">
+        <v>No</v>
+      </c>
+      <c r="K28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L28" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M28" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B29" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C29" t="str">
+        <v>VISIT1763747831213914</v>
+      </c>
+      <c r="D29" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Jared</v>
+      </c>
+      <c r="F29" t="str">
+        <v>ceo</v>
+      </c>
+      <c r="G29" t="str">
+        <v>0700672510</v>
+      </c>
+      <c r="H29" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J29" t="str">
+        <v>No</v>
+      </c>
+      <c r="K29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L29" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M29" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B30" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C30" t="str">
+        <v>VISIT1763747491766529</v>
+      </c>
+      <c r="D30" t="str">
+        <v>11/18/2025</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Sister</v>
+      </c>
+      <c r="F30" t="str">
+        <v>nurse</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0718810682</v>
+      </c>
+      <c r="H30" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J30" t="str">
+        <v>No</v>
+      </c>
+      <c r="K30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L30" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M30" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B31" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C31" t="str">
+        <v>VISIT1763528019791700</v>
+      </c>
+      <c r="D31" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E31" t="str">
+        <v>purity</v>
+      </c>
+      <c r="F31" t="str">
+        <v>nurse</v>
+      </c>
+      <c r="G31" t="str">
+        <v>0724917473</v>
+      </c>
+      <c r="H31" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J31" t="str">
+        <v>No</v>
+      </c>
+      <c r="K31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L31" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M31" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B32" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C32" t="str">
+        <v>VISIT1763527646234694</v>
+      </c>
+      <c r="D32" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Ezina</v>
+      </c>
+      <c r="F32" t="str">
+        <v>ceo</v>
+      </c>
+      <c r="G32" t="str">
+        <v>0729566439</v>
+      </c>
+      <c r="H32" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J32" t="str">
+        <v>No</v>
+      </c>
+      <c r="K32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L32" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M32" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B33" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C33" t="str">
+        <v>VISIT1763525137596394</v>
+      </c>
+      <c r="D33" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Mohamed</v>
+      </c>
+      <c r="F33" t="str">
+        <v>procurement</v>
+      </c>
+      <c r="G33" t="str">
+        <v>0704667381</v>
+      </c>
+      <c r="H33" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J33" t="str">
+        <v>No</v>
+      </c>
+      <c r="K33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L33" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M33" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B34" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C34" t="str">
+        <v>VISIT1763525805510882</v>
+      </c>
+      <c r="D34" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Mercy</v>
+      </c>
+      <c r="F34" t="str">
+        <v>nurse</v>
+      </c>
+      <c r="G34" t="str">
+        <v>0795204269</v>
+      </c>
+      <c r="H34" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J34" t="str">
+        <v>No</v>
+      </c>
+      <c r="K34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L34" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M34" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B35" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C35" t="str">
+        <v>VISIT1763526282800188</v>
+      </c>
+      <c r="D35" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Joice</v>
+      </c>
+      <c r="F35" t="str">
+        <v>nurse</v>
+      </c>
+      <c r="G35" t="str">
+        <v>0797330649</v>
+      </c>
+      <c r="H35" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J35" t="str">
+        <v>No</v>
+      </c>
+      <c r="K35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L35" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M35" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B36" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C36" t="str">
+        <v>VISIT176352658141095</v>
+      </c>
+      <c r="D36" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Samy</v>
+      </c>
+      <c r="F36" t="str">
+        <v>procurement</v>
+      </c>
+      <c r="G36" t="str">
+        <v>0720237722</v>
+      </c>
+      <c r="H36" t="str">
+        <v>winnieosunga@gmail.com</v>
+      </c>
+      <c r="I36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J36" t="str">
+        <v>No</v>
+      </c>
+      <c r="K36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L36" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M36" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Mercy</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Mercy Jemutai</v>
+      </c>
+      <c r="C37" t="str">
+        <v>VISIT1763632793391764</v>
+      </c>
+      <c r="D37" t="str">
+        <v>11/20/2025</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Dr. Eric</v>
+      </c>
+      <c r="F37" t="str">
+        <v>doctor</v>
+      </c>
+      <c r="G37" t="str">
+        <v>0724139858</v>
+      </c>
+      <c r="H37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J37" t="str">
+        <v>No</v>
+      </c>
+      <c r="K37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L37" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M37" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Mercy</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Mercy Jemutai</v>
+      </c>
+      <c r="C38" t="str">
+        <v>VISIT1763561877543185</v>
+      </c>
+      <c r="D38" t="str">
+        <v>11/19/2025</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Madam Florence</v>
+      </c>
+      <c r="F38" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J38" t="str">
+        <v>No</v>
+      </c>
+      <c r="K38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L38" t="str">
+        <v>medium</v>
+      </c>
+      <c r="M38" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M38"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -739,7 +4647,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -773,16 +4681,45 @@
         <v>Admin Notes</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B2" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C2" t="str">
+        <v>69231cb0f7b75bcc558ae0bd</v>
+      </c>
+      <c r="D2" t="str">
+        <v>11/17/2025</v>
+      </c>
+      <c r="E2" t="str">
+        <v>11/21/2025</v>
+      </c>
+      <c r="F2" t="str">
+        <v>pending</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
+        <v>11/23/2025, 5:39:44 PM</v>
+      </c>
+      <c r="I2" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -807,16 +4744,76 @@
         <v>Content</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B2" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C2" t="str">
+        <v>69231cb0f7b75bcc558ae0bd</v>
+      </c>
+      <c r="D2" t="str">
+        <v>summary</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Weekly Summary</v>
+      </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B3" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C3" t="str">
+        <v>69231cb0f7b75bcc558ae0bd</v>
+      </c>
+      <c r="D3" t="str">
+        <v>leads</v>
+      </c>
+      <c r="E3" t="str">
+        <v>New Leads</v>
+      </c>
+      <c r="F3" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B4" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C4" t="str">
+        <v>69231cb0f7b75bcc558ae0bd</v>
+      </c>
+      <c r="D4" t="str">
+        <v>challenges</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Challenges Faced</v>
+      </c>
+      <c r="F4" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,9 +4889,151 @@
         <v>Created At</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B2" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C2" t="str">
+        <v>6920c87b5e0042ef00190963</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Los Olivos medicare Ltd</v>
+      </c>
+      <c r="E2" t="str">
+        <v>hospital</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Masiele Bungoma</v>
+      </c>
+      <c r="G2" t="str">
+        <v>new</v>
+      </c>
+      <c r="H2" t="str">
+        <v>referral</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Evaline</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Incharge</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0711700042</v>
+      </c>
+      <c r="L2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Theatre Equipments</v>
+      </c>
+      <c r="N2" t="str">
+        <v>other</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>KES</v>
+      </c>
+      <c r="R2" t="str">
+        <v>12/31/2025</v>
+      </c>
+      <c r="S2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="U2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="V2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="W2" t="str">
+        <v>11/21/2025, 11:15:54 PM</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Winnie</v>
+      </c>
+      <c r="B3" t="str">
+        <v>winnie Osunga</v>
+      </c>
+      <c r="C3" t="str">
+        <v>6920c94e5e0042ef00190980</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Malesi pharmacy</v>
+      </c>
+      <c r="E3" t="str">
+        <v>clinic</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Kakamega</v>
+      </c>
+      <c r="G3" t="str">
+        <v>new</v>
+      </c>
+      <c r="H3" t="str">
+        <v>field-visit</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Malesi</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Owner</v>
+      </c>
+      <c r="K3" t="str">
+        <v>0722434559</v>
+      </c>
+      <c r="L3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Clinic startup items</v>
+      </c>
+      <c r="N3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>KES</v>
+      </c>
+      <c r="R3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="U3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="V3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="W3" t="str">
+        <v>11/21/2025, 11:19:26 PM</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W3"/>
   </ignoredErrors>
 </worksheet>
 </file>